--- a/experiments/压缩结果.xlsx
+++ b/experiments/压缩结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13005" activeTab="1"/>
+    <workbookView windowWidth="22410" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="δ(r)" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Dataset</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>WebKB-Wisconsin</t>
+  </si>
+  <si>
+    <t>Dunur</t>
   </si>
 </sst>
 </file>
@@ -90,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,21 +116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,6 +124,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +160,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -157,7 +223,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,90 +245,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,31 +274,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,31 +418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,109 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,24 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,21 +487,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -527,17 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,162 +515,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1038,10 +1038,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1054,40 +1054,40 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1316,8 +1316,16 @@
       <c r="C7">
         <v>78263</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="K7" t="e">
+        <f>C7/(D7+E7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>C7/(D7+E7+G7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1327,8 +1335,16 @@
       <c r="C8">
         <v>126190</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="K8" t="e">
+        <f>C8/(D8+E8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" t="e">
+        <f>C8/(D8+E8+G8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1354,16 @@
       <c r="C9">
         <v>99115</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="K9" t="e">
+        <f>C9/(D9+E9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" t="e">
+        <f>C9/(D9+E9+G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1348,6 +1372,57 @@
       </c>
       <c r="C10">
         <v>115261</v>
+      </c>
+      <c r="K10" t="e">
+        <f>C10/(D10+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" t="e">
+        <f>C10/(D10+E10+G10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>440</v>
+      </c>
+      <c r="D11">
+        <v>252</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <f>C11/(D11+E11)</f>
+        <v>1.36645962732919</v>
+      </c>
+      <c r="L11">
+        <f>C11/(D11+E11+G11)</f>
+        <v>1.24293785310734</v>
+      </c>
+      <c r="M11">
+        <v>4.82</v>
       </c>
     </row>
   </sheetData>
@@ -1359,10 +1434,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1375,40 +1450,40 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1627,7 +1702,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1637,8 +1712,16 @@
       <c r="C7">
         <v>78263</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="K7" t="e">
+        <f>C7/(D7+E7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>C7/(D7+E7+G7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1648,8 +1731,16 @@
       <c r="C8">
         <v>126190</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="K8" t="e">
+        <f>C8/(D8+E8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" t="e">
+        <f>C8/(D8+E8+G8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1659,8 +1750,16 @@
       <c r="C9">
         <v>99115</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="K9" t="e">
+        <f>C9/(D9+E9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" t="e">
+        <f>C9/(D9+E9+G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1669,6 +1768,57 @@
       </c>
       <c r="C10">
         <v>115261</v>
+      </c>
+      <c r="K10" t="e">
+        <f>C10/(D10+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" t="e">
+        <f>C10/(D10+E10+G10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>440</v>
+      </c>
+      <c r="D11">
+        <v>223</v>
+      </c>
+      <c r="E11">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>63</v>
+      </c>
+      <c r="H11">
+        <v>66</v>
+      </c>
+      <c r="I11">
+        <v>132</v>
+      </c>
+      <c r="J11">
+        <v>66</v>
+      </c>
+      <c r="K11">
+        <f>C11/(D11+E11)</f>
+        <v>1.57706093189964</v>
+      </c>
+      <c r="L11">
+        <f>C11/(D11+E11+G11)</f>
+        <v>1.28654970760234</v>
+      </c>
+      <c r="M11">
+        <v>6.03</v>
       </c>
     </row>
   </sheetData>
